--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/C/Users/User/Documents/GitHub/CityEnergyAnalyst/cea/databases/SIN/archetypes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="51195" windowHeight="26805" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId4"/>
     <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1141,25 +1141,25 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="7.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
+    <col min="5" max="7" width="7.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1241,38 +1241,38 @@
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="J2" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="K2" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="L2" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>51</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>49</v>
       </c>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -2294,22 +2294,22 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E5" sqref="E5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4"/>
-    <col min="6" max="6" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="4"/>
-    <col min="8" max="8" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4"/>
+    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -2355,13 +2355,13 @@
         <v>65</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -2433,13 +2433,13 @@
         <v>65</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>66</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1048576" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1048576" s="3"/>
     </row>
   </sheetData>
@@ -2842,23 +2842,23 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="4"/>
-    <col min="7" max="7" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>65</v>
@@ -2913,10 +2913,10 @@
         <v>50</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>53</v>
@@ -3003,7 +3003,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>53</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>53</v>
@@ -3032,7 +3032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>66</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1048576" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1048576" s="3"/>
     </row>
   </sheetData>
@@ -3455,21 +3455,21 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -4002,24 +4002,24 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
